--- a/Docs/Tabla_DFA.xlsx
+++ b/Docs/Tabla_DFA.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{130BE27A-E60A-41C3-9397-338A380DF058}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagle\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73781A9F-D510-46FE-96EE-73CD62EF3CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,16 +447,16 @@
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.22265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -489,7 +494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
@@ -503,10 +508,10 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -530,7 +535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -544,34 +549,34 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -612,7 +617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -653,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -694,7 +699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -702,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -714,13 +719,13 @@
         <v>13</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J8">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K8">
         <v>13</v>
@@ -735,7 +740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -776,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -817,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -840,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11">
         <v>8</v>
@@ -858,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -899,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -940,7 +945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
